--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>组员</t>
   </si>
@@ -59,19 +59,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改前端界面添加分页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改后端添加数据分页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -112,6 +104,50 @@
       </rPr>
       <t>第七周周三</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">日期：2018.10.22 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第八周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生考试后端对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生考试前端对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部考试课程和考试班级获取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -246,29 +282,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,12 +624,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -613,11 +649,11 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -625,9 +661,9 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -635,33 +671,33 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -681,11 +717,11 @@
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>10</v>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -693,11 +729,11 @@
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -705,30 +741,104 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>9</v>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A20:D21"/>
     <mergeCell ref="A13:D14"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A8:D8"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,33 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
-  <si>
-    <t>组员</t>
-  </si>
-  <si>
-    <t>计划内容</t>
-  </si>
-  <si>
-    <t>完成情况</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>苏立明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>何舒静</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑瑞贤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>日期：2018.10.15</t>
     </r>
     <r>
@@ -56,41 +40,47 @@
       </rPr>
       <t xml:space="preserve"> 第七周周一</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改前端界面添加分页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改后端添加数据分页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组员</t>
+  </si>
+  <si>
+    <t>计划内容</t>
+  </si>
+  <si>
+    <t>完成情况</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>苏立明</t>
   </si>
   <si>
     <t>讨论完善管理端界面设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基本完成</t>
   </si>
   <si>
-    <t>基本完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>何舒静</t>
+  </si>
+  <si>
+    <t>郑瑞贤</t>
   </si>
   <si>
     <t>总结：界面随着项目推进还要不断改进。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">日期：2018.10.17 </t>
     </r>
     <r>
@@ -104,18 +94,29 @@
       </rPr>
       <t>第七周周三</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改后端添加数据分页</t>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改前端界面添加分页</t>
+  </si>
+  <si>
+    <t>总结：</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">日期：2018.10.22 </t>
     </r>
     <r>
@@ -129,33 +130,43 @@
       </rPr>
       <t>第八周周一</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生考试前端对接</t>
+  </si>
+  <si>
+    <t>全部考试课程和考试班级获取</t>
+  </si>
+  <si>
+    <t>学生考试后端对接</t>
+  </si>
+  <si>
+    <t>日期：2018.10.22 第八周周三</t>
+  </si>
+  <si>
+    <t>验证码</t>
   </si>
   <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生考试后端对接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生考试前端对接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部考试课程和考试班级获取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>使用说明书</t>
+  </si>
+  <si>
+    <t>js重复加载问题</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,38 +183,360 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -263,9 +596,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -273,17 +848,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -291,33 +878,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -604,277 +1223,357 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3" t="s">
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="B26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="A20:D21"/>
     <mergeCell ref="A13:D14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A6:D7"/>
+    <mergeCell ref="A27:D28"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <r>
       <rPr>
@@ -141,19 +141,34 @@
     <t>学生考试后端对接</t>
   </si>
   <si>
+    <t>总结：还剩下学生端的考试尚未完成</t>
+  </si>
+  <si>
     <t>日期：2018.10.22 第八周周三</t>
   </si>
   <si>
     <t>验证码</t>
   </si>
   <si>
+    <t>使用说明书撰写</t>
+  </si>
+  <si>
+    <t>js重复加载问题</t>
+  </si>
+  <si>
+    <t>总结：js的问题是由于监听器重复加载导致，使用说明书先撰写原稿后再修改</t>
+  </si>
+  <si>
+    <t>分页重载问题</t>
+  </si>
+  <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>使用说明书</t>
-  </si>
-  <si>
-    <t>js重复加载问题</t>
+    <t>修改使用说明书</t>
+  </si>
+  <si>
+    <t>合并js代码</t>
   </si>
 </sst>
 </file>
@@ -161,12 +176,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,18 +198,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,66 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -283,7 +284,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,43 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -341,6 +305,42 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,181 +351,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,21 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,15 +615,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -646,16 +622,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,6 +670,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -702,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,171 +714,168 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,10 +1226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1246,297 +1243,371 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="B32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="B33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A20:D21"/>
     <mergeCell ref="A13:D14"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A34:D35"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <r>
       <rPr>
@@ -159,6 +159,9 @@
     <t>总结：js的问题是由于监听器重复加载导致，使用说明书先撰写原稿后再修改</t>
   </si>
   <si>
+    <t>日期：2018.10.21 第八周周四</t>
+  </si>
+  <si>
     <t>分页重载问题</t>
   </si>
   <si>
@@ -177,9 +180,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -351,174 +354,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,12 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,16 +717,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,10 +738,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,88 +762,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1229,7 +1232,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1550,10 +1553,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -1562,10 +1565,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D32" s="5"/>
     </row>
@@ -1574,10 +1577,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="5"/>
     </row>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <r>
       <rPr>
@@ -171,43 +171,50 @@
     <t>合并js代码</t>
   </si>
   <si>
+    <t>忽略</t>
+  </si>
+  <si>
+    <t>总结：监听器重载是由于代码多次执行导致的，需要重新组织前端代码，合并js代码在重组中进行</t>
+  </si>
+  <si>
     <t>日期：2018.10.29 第九周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>修改前端代码组织</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>录入习题题目与答案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：监听器重载是由于代码多次执行导致的，需要重新组织前端代码，合并js代码在重组中进行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推迟</t>
+  </si>
+  <si>
+    <t>编辑器的学习</t>
+  </si>
+  <si>
+    <t>日期：2018.10.31 第九周周三</t>
+  </si>
+  <si>
+    <t>更改题目录入和显示</t>
   </si>
   <si>
     <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑器的学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入编辑器，修改题目录入</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,21 +231,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -298,9 +629,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -308,24 +881,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,11 +908,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -633,499 +1253,579 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="B39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+      <c r="C46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
+      <c r="B47" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A41:D42"/>
+  <mergeCells count="15">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A41:D42"/>
     <mergeCell ref="A20:D21"/>
     <mergeCell ref="A13:D14"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A48:D49"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <r>
       <rPr>
@@ -195,13 +195,19 @@
     <t>日期：2018.10.31 第九周周三</t>
   </si>
   <si>
-    <t>更改题目录入和显示</t>
+    <t>修改学生端页面位置</t>
+  </si>
+  <si>
+    <t>添加下拉选择</t>
+  </si>
+  <si>
+    <t>修改题目</t>
   </si>
   <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>嵌入编辑器，修改题目录入</t>
+    <t>添加编辑器</t>
   </si>
 </sst>
 </file>
@@ -231,8 +237,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,133 +374,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -384,6 +390,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,60 +564,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,96 +571,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,41 +636,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,17 +656,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,6 +692,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,137 +753,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,6 +915,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,10 +1268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1730,7 +1739,7 @@
         <v>38</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D45" s="5"/>
     </row>
@@ -1741,8 +1750,8 @@
       <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>39</v>
+      <c r="C46" s="11">
+        <v>0.1</v>
       </c>
       <c r="D46" s="5"/>
     </row>
@@ -1751,10 +1760,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D47" s="5"/>
     </row>
@@ -1772,8 +1781,80 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A15:D15"/>
@@ -1781,6 +1862,7 @@
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A50:D50"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A41:D42"/>
@@ -1789,6 +1871,7 @@
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A55:D56"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <r>
       <rPr>
@@ -198,9 +198,15 @@
     <t>修改学生端页面位置</t>
   </si>
   <si>
+    <t>阅读习题题目与答案</t>
+  </si>
+  <si>
     <t>添加下拉选择</t>
   </si>
   <si>
+    <t>日期：2018.10.31 第九周周四</t>
+  </si>
+  <si>
     <t>修改题目</t>
   </si>
   <si>
@@ -208,6 +214,18 @@
   </si>
   <si>
     <t>添加编辑器</t>
+  </si>
+  <si>
+    <t>日期：2018.11.5 第十周周一</t>
+  </si>
+  <si>
+    <t>添加搜索功能</t>
+  </si>
+  <si>
+    <t>添加登录验证</t>
+  </si>
+  <si>
+    <t>修改考试界面</t>
   </si>
 </sst>
 </file>
@@ -215,10 +233,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,26 +255,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,24 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,9 +321,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,14 +346,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,16 +361,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +382,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -390,84 +408,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,31 +558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,48 +589,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,11 +654,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,62 +726,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +742,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -741,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,133 +771,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1748,10 +1766,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="11">
-        <v>0.1</v>
+        <v>39</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="D46" s="5"/>
     </row>
@@ -1760,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>13</v>
@@ -1783,7 +1801,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1808,10 +1826,10 @@
         <v>5</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D52" s="5"/>
     </row>
@@ -1823,7 +1841,7 @@
         <v>34</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D53" s="5"/>
     </row>
@@ -1832,10 +1850,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D54" s="5"/>
     </row>
@@ -1853,8 +1871,80 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A15:D15"/>
@@ -1863,6 +1953,7 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A57:D57"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A41:D42"/>
@@ -1872,6 +1963,7 @@
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A55:D56"/>
+    <mergeCell ref="A62:D63"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <r>
       <rPr>
@@ -210,22 +210,34 @@
     <t>修改题目</t>
   </si>
   <si>
+    <t>添加编辑器</t>
+  </si>
+  <si>
+    <t>日期：2018.11.5 第十周周一</t>
+  </si>
+  <si>
+    <t>添加搜索功能</t>
+  </si>
+  <si>
+    <t>添加登录验证</t>
+  </si>
+  <si>
+    <t>修改考试界面</t>
+  </si>
+  <si>
+    <t>日期：2018.11.5 第十周周三</t>
+  </si>
+  <si>
+    <t>修改文件上传</t>
+  </si>
+  <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>添加编辑器</t>
-  </si>
-  <si>
-    <t>日期：2018.11.5 第十周周一</t>
-  </si>
-  <si>
-    <t>添加搜索功能</t>
-  </si>
-  <si>
-    <t>添加登录验证</t>
-  </si>
-  <si>
-    <t>修改考试界面</t>
+    <t>编辑器代码提示 自动补全 高亮</t>
+  </si>
+  <si>
+    <t>修改主页面，已登录和未登录</t>
   </si>
 </sst>
 </file>
@@ -233,10 +245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -257,6 +269,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +335,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -321,73 +396,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,6 +420,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,6 +468,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,72 +570,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -553,18 +577,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,21 +666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -725,15 +722,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -751,6 +739,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -759,10 +771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,133 +783,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1286,10 +1298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1829,7 +1841,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D52" s="5"/>
     </row>
@@ -1841,7 +1853,7 @@
         <v>34</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D53" s="5"/>
     </row>
@@ -1850,10 +1862,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D54" s="5"/>
     </row>
@@ -1873,7 +1885,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1898,10 +1910,10 @@
         <v>5</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D59" s="5"/>
     </row>
@@ -1910,10 +1922,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D60" s="5"/>
     </row>
@@ -1922,10 +1934,10 @@
         <v>9</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D61" s="5"/>
     </row>
@@ -1943,8 +1955,80 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A15:D15"/>
@@ -1954,6 +2038,7 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D64"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A41:D42"/>
@@ -1964,6 +2049,7 @@
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A55:D56"/>
     <mergeCell ref="A62:D63"/>
+    <mergeCell ref="A69:D70"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <r>
       <rPr>
@@ -225,19 +225,31 @@
     <t>修改考试界面</t>
   </si>
   <si>
-    <t>日期：2018.11.5 第十周周三</t>
+    <t>日期：2018.11.7 第十周周三</t>
   </si>
   <si>
     <t>修改文件上传</t>
   </si>
   <si>
+    <t>编辑器代码提示 自动补全 高亮</t>
+  </si>
+  <si>
+    <t>修改主页面，已登录和未登录</t>
+  </si>
+  <si>
+    <t>日期：2018.11.8 第十周周四</t>
+  </si>
+  <si>
+    <t>检查页面存在的问题</t>
+  </si>
+  <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>编辑器代码提示 自动补全 高亮</t>
-  </si>
-  <si>
-    <t>修改主页面，已登录和未登录</t>
+    <t>修改考试进入界面</t>
+  </si>
+  <si>
+    <t>修改题目内容</t>
   </si>
 </sst>
 </file>
@@ -247,8 +259,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -389,8 +401,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,9 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +438,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,30 +474,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,48 +486,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -534,6 +546,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,7 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,48 +613,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,115 +795,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,13 +912,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1298,10 +1310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1985,7 +1997,7 @@
         <v>49</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D66" s="5"/>
     </row>
@@ -1994,10 +2006,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D67" s="5"/>
     </row>
@@ -2006,10 +2018,10 @@
         <v>9</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D68" s="5"/>
     </row>
@@ -2027,8 +2039,80 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A15:D15"/>
@@ -2039,6 +2123,7 @@
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A71:D71"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A41:D42"/>
@@ -2050,6 +2135,7 @@
     <mergeCell ref="A55:D56"/>
     <mergeCell ref="A62:D63"/>
     <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A76:D77"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -266,6 +266,26 @@
   </si>
   <si>
     <t>修改考试测评评分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理端检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.14 第十一周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,8 +409,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,12 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,12 +748,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -747,7 +773,7 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -759,7 +785,7 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -769,33 +795,33 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -848,26 +874,26 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -920,26 +946,26 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
@@ -992,26 +1018,26 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1064,26 +1090,26 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1136,26 +1162,26 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -1208,26 +1234,26 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
@@ -1280,26 +1306,26 @@
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
@@ -1352,26 +1378,26 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1424,26 +1450,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -1496,26 +1522,26 @@
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
@@ -1539,7 +1565,7 @@
         <v>60</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D80" s="3"/>
     </row>
@@ -1550,8 +1576,8 @@
       <c r="B81" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>53</v>
+      <c r="C81" s="5">
+        <v>0.7</v>
       </c>
       <c r="D81" s="3"/>
     </row>
@@ -1562,52 +1588,110 @@
       <c r="B82" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>53</v>
+      <c r="C82" s="5">
+        <v>0.3</v>
       </c>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A76:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="B3:B5"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A41:D42"/>
     <mergeCell ref="A20:D21"/>
     <mergeCell ref="A13:D14"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="A62:D63"/>
-    <mergeCell ref="A69:D70"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A76:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="A62:D63"/>
+    <mergeCell ref="A69:D70"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <r>
       <rPr>
@@ -237,6 +237,9 @@
     <t>修改主页面，已登录和未登录</t>
   </si>
   <si>
+    <t>日期：2018.11.8 第十周周四</t>
+  </si>
+  <si>
     <t>检查页面存在的问题</t>
   </si>
   <si>
@@ -249,51 +252,62 @@
     <t>修改题目内容</t>
   </si>
   <si>
-    <t>日期：2018.11.8 第十周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：2018.11.12 第十一周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档补充</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改考试测评评分</t>
+  </si>
+  <si>
+    <t>用例设计文档</t>
   </si>
   <si>
     <t>修改界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改考试测评评分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.14 第十一周周三</t>
   </si>
   <si>
     <t>管理端检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.11.14 第十一周周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例规约说明书</t>
+  </si>
+  <si>
+    <t>管理端前端修改</t>
+  </si>
+  <si>
+    <t>日期：2018.11.15 第十一周周四</t>
+  </si>
+  <si>
+    <t>教师端检查</t>
+  </si>
+  <si>
+    <t>系统拓扑结构图</t>
+  </si>
+  <si>
+    <t>日期：2018.11.19 第十二周周一</t>
+  </si>
+  <si>
+    <t>增加批量删除</t>
+  </si>
+  <si>
+    <t>数据库相关文档</t>
+  </si>
+  <si>
+    <t>教师端前端修改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,21 +324,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -384,30 +722,340 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -415,29 +1063,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -728,1001 +1432,1172 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+      <c r="C46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+      <c r="C52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
+      <c r="C53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="9" t="s">
+      <c r="C54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+      <c r="C59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+      <c r="C60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="C61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+      <c r="C66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
+      <c r="C68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+      <c r="C75" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
+      <c r="B80" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B81" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="15"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="9" t="s">
+      <c r="B103" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="15"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="31">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A41:D42"/>
     <mergeCell ref="A20:D21"/>
     <mergeCell ref="A13:D14"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A76:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A71:D71"/>
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A55:D56"/>
     <mergeCell ref="A62:D63"/>
     <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A104:D105"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <r>
       <rPr>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>教师端前端修改</t>
+  </si>
+  <si>
+    <t>日期：2018.11.21 第十二周周三</t>
+  </si>
+  <si>
+    <t>项目测试部署</t>
+  </si>
+  <si>
+    <t>测试文档</t>
+  </si>
+  <si>
+    <t>改变题目显示样式</t>
   </si>
 </sst>
 </file>
@@ -333,7 +345,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,30 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -392,9 +380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,11 +395,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,14 +434,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,21 +458,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,6 +489,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,175 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,17 +797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,21 +817,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,11 +838,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,25 +855,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,10 +902,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,133 +914,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1438,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2486,7 +2498,7 @@
         <v>69</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D101" s="5"/>
     </row>
@@ -2498,7 +2510,7 @@
         <v>70</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D102" s="5"/>
     </row>
@@ -2510,7 +2522,7 @@
         <v>71</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D103" s="5"/>
     </row>
@@ -2528,8 +2540,80 @@
       <c r="C105" s="16"/>
       <c r="D105" s="17"/>
     </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="15"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A15:D15"/>
@@ -2545,6 +2629,7 @@
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A106:D106"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A41:D42"/>
@@ -2561,6 +2646,7 @@
     <mergeCell ref="A90:D91"/>
     <mergeCell ref="A97:D98"/>
     <mergeCell ref="A104:D105"/>
+    <mergeCell ref="A111:D112"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="96">
   <si>
     <r>
       <rPr>
@@ -328,6 +328,66 @@
   </si>
   <si>
     <t>添加详细简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器前进后退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.28 第十三周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.29 第十三周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器刷新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目界面修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加导入导出界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.12.3 第十四周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量导入导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加密码修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷查看界面修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +426,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -488,13 +548,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +613,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,23 +649,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -867,12 +973,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -892,7 +998,7 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -904,7 +1010,7 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -914,33 +1020,33 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -993,26 +1099,26 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1065,26 +1171,26 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
@@ -1137,26 +1243,26 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1209,26 +1315,26 @@
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1281,26 +1387,26 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -1353,26 +1459,26 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
@@ -1425,26 +1531,26 @@
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
@@ -1497,26 +1603,26 @@
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1569,27 +1675,27 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -1642,26 +1748,26 @@
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
@@ -1714,26 +1820,26 @@
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
@@ -1786,26 +1892,26 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="16"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="18"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -1858,26 +1964,26 @@
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="15"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="16"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="18"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
@@ -1930,26 +2036,26 @@
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="15"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="9"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="16"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="18"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -2002,26 +2108,26 @@
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="15"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="16"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="18"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="21"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -2045,7 +2151,7 @@
         <v>79</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D115" s="3"/>
     </row>
@@ -2057,7 +2163,7 @@
         <v>72</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D116" s="3"/>
     </row>
@@ -2069,31 +2175,271 @@
         <v>80</v>
       </c>
       <c r="C117" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="10"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="12"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="21"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="10"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="12"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="21"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="10"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="21"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="13" t="s">
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="15"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="16"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="18"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="10"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A104:D105"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A118:D119"/>
-    <mergeCell ref="A106:D106"/>
+  <mergeCells count="41">
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A76:D77"/>
+    <mergeCell ref="A48:D49"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="A62:D63"/>
+    <mergeCell ref="A69:D70"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="A41:D42"/>
@@ -2101,29 +2447,11 @@
     <mergeCell ref="A13:D14"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A76:D77"/>
-    <mergeCell ref="A48:D49"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="A62:D63"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A104:D105"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A118:D119"/>
+    <mergeCell ref="A106:D106"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -388,6 +384,26 @@
   </si>
   <si>
     <t>试卷查看界面修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.12.5 第十四周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线编辑页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题库编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -631,8 +647,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,21 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -973,12 +989,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -998,7 +1014,7 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1010,7 +1026,7 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1036,7 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1041,12 +1057,12 @@
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1113,12 +1129,12 @@
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1185,12 +1201,12 @@
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
@@ -1257,12 +1273,12 @@
       <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1329,12 +1345,12 @@
       <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1401,12 +1417,12 @@
       <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -1473,12 +1489,12 @@
       <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
@@ -1545,12 +1561,12 @@
       <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
@@ -1617,12 +1633,12 @@
       <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1690,12 +1706,12 @@
       <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -1762,12 +1778,12 @@
       <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
@@ -1834,12 +1850,12 @@
       <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
@@ -1906,12 +1922,12 @@
       <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -1978,12 +1994,12 @@
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
@@ -2050,12 +2066,12 @@
       <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -2122,12 +2138,12 @@
       <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="21"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -2194,12 +2210,12 @@
       <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="21"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
@@ -2232,10 +2248,10 @@
         <v>8</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D123" s="3"/>
     </row>
@@ -2244,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>74</v>
@@ -2266,12 +2282,12 @@
       <c r="D126" s="12"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="21"/>
+      <c r="A127" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
@@ -2292,7 +2308,7 @@
         <v>5</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>74</v>
@@ -2304,10 +2320,10 @@
         <v>8</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D130" s="3"/>
     </row>
@@ -2316,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>74</v>
@@ -2338,12 +2354,12 @@
       <c r="D133" s="12"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="21"/>
+      <c r="A134" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
@@ -2364,10 +2380,10 @@
         <v>5</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D136" s="3"/>
     </row>
@@ -2376,10 +2392,10 @@
         <v>8</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D137" s="3"/>
     </row>
@@ -2388,10 +2404,10 @@
         <v>9</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D138" s="3"/>
     </row>
@@ -2409,19 +2425,96 @@
       <c r="C140" s="11"/>
       <c r="D140" s="12"/>
     </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="10"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A125:D126"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A29:D29"/>
+  <mergeCells count="43">
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A146:D147"/>
+    <mergeCell ref="A104:D105"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A118:D119"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A62:D63"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="A27:D28"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A43:D43"/>
@@ -2438,20 +2531,17 @@
     <mergeCell ref="A76:D77"/>
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A55:D56"/>
-    <mergeCell ref="A62:D63"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A104:D105"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A118:D119"/>
-    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="A134:D134"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第04组/04项目计划表 .xlsx
+++ b/第04组/04项目计划表 .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="106">
   <si>
     <r>
       <rPr>
@@ -404,6 +404,30 @@
   </si>
   <si>
     <t>修改密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.12.6 第十四周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.12.10 第十五周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师个人信息修改（前端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师个人信息修改（后端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试与修复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -629,6 +653,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -646,15 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -975,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1908,18 +1932,18 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="9"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="10"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="16" t="s">
@@ -1980,18 +2004,18 @@
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="9"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="10"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="16" t="s">
@@ -2052,18 +2076,18 @@
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="9"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="10"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="12"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="16" t="s">
@@ -2124,26 +2148,26 @@
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="10"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="12"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="15"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="9"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -2196,26 +2220,26 @@
       <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="9"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="12"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="10"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="12"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="15"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="9"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
@@ -2268,26 +2292,26 @@
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="9"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="10"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="12"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="15"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="9"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
@@ -2340,26 +2364,26 @@
       <c r="D131" s="3"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="9"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="12"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="10"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="12"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="15"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="9"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
@@ -2412,26 +2436,26 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="9"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="10"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="12"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="15"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="9"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
@@ -2484,37 +2508,174 @@
       <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="9"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="12"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="10"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="12"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="12"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="13"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="12"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="13"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A146:D147"/>
-    <mergeCell ref="A104:D105"/>
-    <mergeCell ref="A111:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A118:D119"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A62:D63"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A34:D35"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="A27:D28"/>
+  <mergeCells count="47">
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A160:D161"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A43:D43"/>
@@ -2531,11 +2692,22 @@
     <mergeCell ref="A76:D77"/>
     <mergeCell ref="A48:D49"/>
     <mergeCell ref="A55:D56"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A62:D63"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A146:D147"/>
+    <mergeCell ref="A104:D105"/>
+    <mergeCell ref="A111:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A118:D119"/>
+    <mergeCell ref="A106:D106"/>
     <mergeCell ref="A139:D140"/>
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="A125:D126"/>
